--- a/Version 1/ExcelTestSSO.xlsx
+++ b/Version 1/ExcelTestSSO.xlsx
@@ -42,11 +42,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -60,8 +55,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,12 +74,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor indexed="12"/>
       </patternFill>
     </fill>
   </fills>
@@ -93,18 +89,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -397,26 +390,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -661,15 +646,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B88C4F8A-EE52-4C73-95BB-463EC08B7471}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7a4cb89e-0dcd-4fac-972d-6428dc4a4f83"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="1403520b-a90b-4c50-b36b-07d0abd0460b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7a4cb89e-0dcd-4fac-972d-6428dc4a4f83"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
